--- a/result/with_base/124/arousal/s21_7.xlsx
+++ b/result/with_base/124/arousal/s21_7.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9453125</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8225000202655792</v>
+        <v>0.79296875</v>
       </c>
       <c r="C2" t="n">
-        <v>41698.2109375</v>
+        <v>11289.11962890625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8505681807344611</v>
+        <v>0.8415178586454952</v>
       </c>
       <c r="E2" t="n">
-        <v>41696.26633522727</v>
+        <v>11286.68698299632</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9025000035762787</v>
+        <v>0.8560267984867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40909.4140625</v>
+        <v>10984.3857421875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9081818027929827</v>
+        <v>0.8768382352941176</v>
       </c>
       <c r="E3" t="n">
-        <v>40908.35014204546</v>
+        <v>10982.80083869485</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.859375</v>
       </c>
       <c r="C4" t="n">
-        <v>40136.005859375</v>
+        <v>10684.75927734375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9177272753282026</v>
+        <v>0.8956801470588235</v>
       </c>
       <c r="E4" t="n">
-        <v>40134.37677556818</v>
+        <v>10683.03004365809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39370.6875</v>
+        <v>10391.703125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.936704543503848</v>
+        <v>0.9118303586454952</v>
       </c>
       <c r="E5" t="n">
-        <v>39368.53870738636</v>
+        <v>10389.78952205882</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38616.298828125</v>
+        <v>10104.92236328125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9470454508608038</v>
+        <v>0.9172137590015635</v>
       </c>
       <c r="E6" t="n">
-        <v>38614.44105113636</v>
+        <v>10103.0087890625</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37873.720703125</v>
+        <v>9823.3720703125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9588636376641013</v>
+        <v>0.9499737409984365</v>
       </c>
       <c r="E7" t="n">
-        <v>37871.62251420454</v>
+        <v>9821.661247702206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37143.962890625</v>
+        <v>9549.1220703125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9622727253220298</v>
+        <v>0.9545036764705882</v>
       </c>
       <c r="E8" t="n">
-        <v>37142.19673295454</v>
+        <v>9547.59530101103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36427.365234375</v>
+        <v>9281.9970703125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9665909030220725</v>
+        <v>0.9542410724303302</v>
       </c>
       <c r="E9" t="n">
-        <v>36424.63174715909</v>
+        <v>9280.032743566177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35722.322265625</v>
+        <v>9019.6416015625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9743181954730641</v>
+        <v>0.9641544117647058</v>
       </c>
       <c r="E10" t="n">
-        <v>35719.64737215909</v>
+        <v>9018.244772518383</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35029.1953125</v>
+        <v>8764.8154296875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9736363725228743</v>
+        <v>0.965401786215165</v>
       </c>
       <c r="E11" t="n">
-        <v>35027.04616477273</v>
+        <v>8763.470243566177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.921875</v>
       </c>
       <c r="C12" t="n">
-        <v>34348.97265625</v>
+        <v>8516.05810546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9765909151597456</v>
+        <v>0.9586397058823529</v>
       </c>
       <c r="E12" t="n">
-        <v>34346.83522727273</v>
+        <v>8514.91251148897</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33681.4921875</v>
+        <v>8274.07373046875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9805681922219016</v>
+        <v>0.9414390746284934</v>
       </c>
       <c r="E13" t="n">
-        <v>33678.96342329546</v>
+        <v>8272.83065257353</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33025.732421875</v>
+        <v>8037.222412109375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9806818257678639</v>
+        <v>0.9736081922755522</v>
       </c>
       <c r="E14" t="n">
-        <v>33023.28196022727</v>
+        <v>8036.164292279412</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32382.1640625</v>
+        <v>7806.966552734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9839772852984342</v>
+        <v>0.9776785724303302</v>
       </c>
       <c r="E15" t="n">
-        <v>32379.44620028409</v>
+        <v>7805.882352941177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31749.923828125</v>
+        <v>7582.701904296875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9742647058823529</v>
       </c>
       <c r="E16" t="n">
-        <v>31747.43181818182</v>
+        <v>7581.568905101103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31130.650390625</v>
+        <v>7364.048828125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9750000184232538</v>
+        <v>0.9819459038622239</v>
       </c>
       <c r="E17" t="n">
-        <v>31127.48863636364</v>
+        <v>7362.962201286765</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C18" t="n">
-        <v>30520.4248046875</v>
+        <v>7151.036865234375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9910227331248197</v>
+        <v>0.9797137590015635</v>
       </c>
       <c r="E18" t="n">
-        <v>30518.24911221591</v>
+        <v>7150.034524356618</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29923.2392578125</v>
+        <v>6943.49267578125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9850971628637875</v>
       </c>
       <c r="E19" t="n">
-        <v>29920.58771306818</v>
+        <v>6942.612161075368</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.929999977350235</v>
+        <v>0.91796875</v>
       </c>
       <c r="C20" t="n">
-        <v>29336.2314453125</v>
+        <v>6741.64599609375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9860819332739886</v>
       </c>
       <c r="E20" t="n">
-        <v>29333.85848721591</v>
+        <v>6740.750430836397</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9296875</v>
       </c>
       <c r="C21" t="n">
-        <v>28760.40234375</v>
+        <v>6544.948974609375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E21" t="n">
-        <v>28758.07794744318</v>
+        <v>6544.155732996323</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28195.7861328125</v>
+        <v>6353.598876953125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E22" t="n">
-        <v>28192.93501420454</v>
+        <v>6352.765625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27640.4794921875</v>
+        <v>6167.133056640625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E23" t="n">
-        <v>27638.29083806818</v>
+        <v>6166.408059512868</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9375</v>
+        <v>0.94140625</v>
       </c>
       <c r="C24" t="n">
-        <v>27095.939453125</v>
+        <v>5985.675537109375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E24" t="n">
-        <v>27093.93874289773</v>
+        <v>5985.011374080882</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26561.734375</v>
+        <v>5809.348876953125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E25" t="n">
-        <v>26559.82386363636</v>
+        <v>5808.569565716912</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26037.9716796875</v>
+        <v>5637.2353515625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9921875</v>
       </c>
       <c r="E26" t="n">
-        <v>26035.69389204546</v>
+        <v>5636.670668658088</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25522.9658203125</v>
+        <v>5470.19921875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9818146018420949</v>
       </c>
       <c r="E27" t="n">
-        <v>25521.24964488636</v>
+        <v>5469.605181525735</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25017.9697265625</v>
+        <v>5307.55859375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E28" t="n">
-        <v>25016.42808948864</v>
+        <v>5306.97354664522</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9453125</v>
       </c>
       <c r="C29" t="n">
-        <v>24522.5322265625</v>
+        <v>5149.275390625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E29" t="n">
-        <v>24521.05575284091</v>
+        <v>5148.714211856618</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9375</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C30" t="n">
-        <v>24036.755859375</v>
+        <v>4995.181396484375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E30" t="n">
-        <v>24034.98224431818</v>
+        <v>4994.703239889706</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23559.4775390625</v>
+        <v>4845.45703125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E31" t="n">
-        <v>23557.99041193182</v>
+        <v>4844.939998851103</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9453125</v>
       </c>
       <c r="C32" t="n">
-        <v>23091.4853515625</v>
+        <v>4699.72509765625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E32" t="n">
-        <v>23089.92808948864</v>
+        <v>4699.259736902573</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.94921875</v>
       </c>
       <c r="C33" t="n">
-        <v>22631.7802734375</v>
+        <v>4558.087646484375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E33" t="n">
-        <v>22630.64524147727</v>
+        <v>4557.528636259191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C34" t="n">
-        <v>22181.482421875</v>
+        <v>4420.031982421875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E34" t="n">
-        <v>22180.03551136364</v>
+        <v>4419.669548483456</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21739.2431640625</v>
+        <v>4286.000732421875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E35" t="n">
-        <v>21737.89488636364</v>
+        <v>4285.589815027573</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21305.080078125</v>
+        <v>4155.635009765625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9973863634196195</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E36" t="n">
-        <v>21304.00994318182</v>
+        <v>4155.232881433823</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C37" t="n">
-        <v>20879.62109375</v>
+        <v>4028.945434570312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9830619762925541</v>
       </c>
       <c r="E37" t="n">
-        <v>20878.37109375</v>
+        <v>4028.487520105698</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20461.7509765625</v>
+        <v>3905.64208984375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E38" t="n">
-        <v>20460.62979403409</v>
+        <v>3905.234719669118</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20052.25</v>
+        <v>3785.807250976562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E39" t="n">
-        <v>20050.81711647727</v>
+        <v>3785.455710018382</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19650.1689453125</v>
+        <v>3669.378051757812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E40" t="n">
-        <v>19648.71324573864</v>
+        <v>3668.972986557904</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19255.9150390625</v>
+        <v>3556.08203125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9852941176470589</v>
       </c>
       <c r="E41" t="n">
-        <v>19254.26189630682</v>
+        <v>3555.7236328125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C42" t="n">
-        <v>18868.4140625</v>
+        <v>3445.993286132812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.984637604040258</v>
       </c>
       <c r="E42" t="n">
-        <v>18867.16938920454</v>
+        <v>3445.670596852022</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18488.2744140625</v>
+        <v>3338.952270507812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E43" t="n">
-        <v>18487.40447443182</v>
+        <v>3338.656235638787</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9375</v>
       </c>
       <c r="C44" t="n">
-        <v>18115.6982421875</v>
+        <v>3234.983032226562</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9785320373142466</v>
       </c>
       <c r="E44" t="n">
-        <v>18114.81480823864</v>
+        <v>3234.729765050552</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17750.609375</v>
+        <v>3133.909790039062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9960227283564481</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E45" t="n">
-        <v>17749.25301846591</v>
+        <v>3133.657140395221</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17391.66796875</v>
+        <v>3035.751831054688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E46" t="n">
-        <v>17390.63529829546</v>
+        <v>3035.489186006434</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.94921875</v>
       </c>
       <c r="C47" t="n">
-        <v>17039.7119140625</v>
+        <v>2940.310424804688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E47" t="n">
-        <v>17038.77006392046</v>
+        <v>2940.116957720588</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16694.3291015625</v>
+        <v>2847.676391601562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E48" t="n">
-        <v>16693.57013494318</v>
+        <v>2847.430807674632</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16355.6123046875</v>
+        <v>2757.618774414062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E49" t="n">
-        <v>16354.9228515625</v>
+        <v>2757.401912913603</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.94921875</v>
       </c>
       <c r="C50" t="n">
-        <v>16023.6689453125</v>
+        <v>2670.120727539062</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E50" t="n">
-        <v>16022.70205965909</v>
+        <v>2669.914048138787</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,916 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9453125</v>
       </c>
       <c r="C51" t="n">
-        <v>15697.95458984375</v>
+        <v>2585.160278320312</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9836528371362125</v>
       </c>
       <c r="E51" t="n">
-        <v>15696.76482599432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15377.7275390625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15377.01278409091</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15064.41796875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15063.37162642045</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14756.6943359375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14755.67072088068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14454.77392578125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14453.82661576705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14158.71533203125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14157.70250355114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13868.16845703125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13867.26518110795</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13583.4228515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9921590956774625</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13582.39284446023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13303.72314453125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13302.82350852273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13029.3603515625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13028.66104403409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12760.66552734375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9896590980616483</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12759.78293678977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12496.666015625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12495.97469815341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12238.06640625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12237.25807883523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11984.5986328125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11983.50843394886</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11735.47119140625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11734.60715553977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11491.19384765625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11490.48561789773</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11251.736328125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11251.07626065341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11017.068359375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11016.26349431818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10786.5166015625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10785.95774147727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10560.609375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10560.09499289773</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10339.3271484375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10338.59295099432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10121.8701171875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10121.36745383523</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9908.8896484375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9908.341796875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9700.01123046875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9699.464222301136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9495.306640625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9898863705721769</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9494.652077414772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9294.28759765625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9293.773259943182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9097.412109375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9096.825017755682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8904.23388671875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8903.717507102272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8715.025390625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8714.350852272728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8529.14794921875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8528.672674005682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8347.04638671875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8346.635120738636</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4909090909090909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005405405405405406</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8545454545454545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01081081081081081</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8545454545454545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01081081081081081</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8909090909090909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01621621621621622</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8909090909090909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01621621621621622</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9636363636363636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.03243243243243243</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9636363636363636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.03243243243243243</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9818181818181818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5081081081081081</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9818181818181818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.5081081081081081</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9846191646191647</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9027027027027027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9675675675675676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9675675675675676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.972972972972973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.972972972972973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9837837837837838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9837837837837838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9891891891891892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9891891891891892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9945945945945946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5818181818181818</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9945945945945946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.5818181818181818</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9848157248157249</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>2584.973460477941</v>
       </c>
     </row>
   </sheetData>
